--- a/document/製品マスター入力サンプル.xlsx
+++ b/document/製品マスター入力サンプル.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Javaシステム科\88_WorkProduct\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8455EADA-5C4D-4BE4-82A7-BEAA4809CC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88293DC-9769-45D3-BC7E-02ECAC75C61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{8803C375-7C5A-42B3-B81B-6169C08BF51E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>メーカー</t>
     <phoneticPr fontId="1"/>
@@ -183,6 +183,56 @@
   </si>
   <si>
     <t>川崎 T-4“ブルーインパルス”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GV1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紅の豚 アジトのポルコ</t>
+    <rPh sb="0" eb="1">
+      <t>クレナイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紅の豚</t>
+    <rPh sb="0" eb="1">
+      <t>クレナイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛行戦艦 ゴリアテ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FG9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天空の城ラピュタ</t>
+    <rPh sb="0" eb="2">
+      <t>テンクウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファインモールド</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -547,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C85165-124D-45D3-B4D7-EF70C2FBC311}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -727,6 +777,46 @@
         <v>1320</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>4180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
